--- a/biology/Mycologie/Phallomycetidae/Phallomycetidae.xlsx
+++ b/biology/Mycologie/Phallomycetidae/Phallomycetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phallomycetidae sont une sous-classe de champignons agaricomycètes. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (18 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (18 janvier 2023) :
 Geastrales K. Hosaka &amp; Castellano, 2006
 Gomphales Jülich, 1982
 Hysterangiales K. Hosaka &amp; Castellano, 2007
@@ -550,18 +564,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le groupe est monophylétique et fondé essentiellement sur des critères de biologie moléculaire. Une vaste étude phylogénétique réalisée en 2007, réalisée par plus d'une soixantaine de chercheurs[2], dont le classement est adopté par The Tree of Life Web Project et Myconet[3] présente ce phylogramme.
-Positionnement dans le phylogramme des Agaricomycetes
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe est monophylétique et fondé essentiellement sur des critères de biologie moléculaire. Une vaste étude phylogénétique réalisée en 2007, réalisée par plus d'une soixantaine de chercheurs, dont le classement est adopté par The Tree of Life Web Project et Myconet présente ce phylogramme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phallomycetidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phallomycetidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Positionnement dans le phylogramme des Agaricomycetes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agaricomycetes
 Agaricomycetidae
 Phallomycetidae
 Clades des Geastrales
 Clades des Gomphales
 Clades des Hysterangiales
-Clades des Phallales
-Phylogramme détaillé
+Clades des Phallales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phallomycetidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phallomycetidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogramme détaillé</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agaricomycetes
 Phallomycetidae
 Geastrales
